--- a/test_cases/PE-16/TC-05-Ciudad.xlsx
+++ b/test_cases/PE-16/TC-05-Ciudad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1A3CDB-25EA-426D-BE58-04278ABCCF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23E3CB0-0A70-4253-901C-DABD29A4D663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>User Stories covered</t>
   </si>
   <si>
-    <t>US-1, US-3</t>
-  </si>
-  <si>
     <t>Automation Status</t>
   </si>
   <si>
@@ -165,18 +162,12 @@
     <t>ingresar ciudad4</t>
   </si>
   <si>
-    <t>Ciudad1 = Miami</t>
-  </si>
-  <si>
     <t>Ciudad2 = pin34#</t>
   </si>
   <si>
     <t>Ciudad3 = Argentina</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciudad4 = </t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -193,6 +184,15 @@
   </si>
   <si>
     <t xml:space="preserve">tested  by Ramiro Arago in version 2.1 </t>
+  </si>
+  <si>
+    <t>PE-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad1 = </t>
+  </si>
+  <si>
+    <t>Ciudad4 = Miami</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -649,12 +649,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -720,84 +714,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -814,6 +730,87 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1100,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1111,27 +1108,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="45"/>
+      <c r="D1" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1139,11 +1136,11 @@
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70" t="s">
+      <c r="B3" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="8">
@@ -1151,11 +1148,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>50</v>
+      <c r="B5" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1171,7 +1168,7 @@
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1185,8 +1182,8 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>21</v>
+      <c r="E8" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1199,8 +1196,8 @@
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>22</v>
+      <c r="E9" s="24" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
@@ -1211,8 +1208,8 @@
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>35</v>
+      <c r="E10" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1220,335 +1217,319 @@
         <v>4</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>4</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>40</v>
+      <c r="E11" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" x14ac:dyDescent="0.35">
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>5</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="D13" s="22">
+        <v>6</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22" x14ac:dyDescent="0.35">
-      <c r="D13" s="24">
-        <v>6</v>
-      </c>
-      <c r="E13" s="30" t="s">
+    <row r="14" spans="1:5" ht="22" x14ac:dyDescent="0.35">
+      <c r="D14" s="22">
+        <v>7</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" s="22">
+        <v>8</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="22" x14ac:dyDescent="0.35">
-      <c r="D14" s="24">
-        <v>7</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D15" s="24">
-        <v>8</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="22" x14ac:dyDescent="0.35">
-      <c r="D17" s="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="22">
         <v>10</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="D18" s="22">
+        <v>11</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="D19" s="22">
+        <v>12</v>
+      </c>
+      <c r="E19" s="36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D18" s="24">
-        <v>11</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="D19" s="24">
-        <v>12</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="24">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="D20" s="22">
         <v>13</v>
       </c>
-      <c r="E20" s="36" t="s">
-        <v>49</v>
+      <c r="E20" s="34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
+      <c r="E25" s="27" t="s">
         <v>16</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>1</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="47"/>
+      <c r="B28" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>2</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="47"/>
+      <c r="B29" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>3</v>
       </c>
-      <c r="B30" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="47"/>
+      <c r="B30" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="52"/>
     </row>
     <row r="31" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>4</v>
       </c>
-      <c r="B31" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="47"/>
+      <c r="B31" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>5</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="47"/>
+      <c r="B32" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>6</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="52"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="29">
+        <v>7</v>
+      </c>
+      <c r="B34" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="47"/>
-    </row>
-    <row r="34" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31">
-        <v>7</v>
-      </c>
-      <c r="B34" s="48" t="s">
+      <c r="C34" s="61"/>
+      <c r="D34" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="52"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="29">
+        <v>8</v>
+      </c>
+      <c r="B35" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="47"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31">
-        <v>8</v>
-      </c>
-      <c r="B35" s="48" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="47"/>
+      <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31">
+      <c r="A36" s="29">
         <v>9</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="52"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="29">
+        <v>10</v>
+      </c>
+      <c r="B37" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="47"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31">
-        <v>10</v>
-      </c>
-      <c r="B37" s="63" t="s">
+      <c r="C37" s="63"/>
+      <c r="D37" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="59"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="32">
+        <v>11</v>
+      </c>
+      <c r="B38" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="61" t="s">
+      <c r="C38" s="55"/>
+      <c r="D38" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="62"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34">
-        <v>11</v>
-      </c>
-      <c r="B38" s="60" t="s">
+      <c r="E38" s="59"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="29">
+        <v>12</v>
+      </c>
+      <c r="B39" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="41"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31">
-        <v>12</v>
-      </c>
-      <c r="B39" s="58" t="s">
+      <c r="C39" s="54"/>
+      <c r="D39" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="59"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="29">
+        <v>13</v>
+      </c>
+      <c r="B40" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31">
-        <v>13</v>
-      </c>
-      <c r="B40" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="42"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="57"/>
     </row>
     <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
     </row>
     <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
+  <mergeCells count="32">
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D32:E32"/>
@@ -1561,6 +1542,23 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" display="Mail=jaunGim@gmail.com" xr:uid="{C513E64F-9F55-4EF3-AC81-3EFB183932A3}"/>
